--- a/VT_ModelPL_DEMAND_v1.xlsx
+++ b/VT_ModelPL_DEMAND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\H2-model-v02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37A5B6B-E709-40AA-AC8B-DB6A7F3D0A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F9079-A32F-49DB-A8CE-19B20BA4F57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="499" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="499" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -19,13 +19,8 @@
     <sheet name="Demand_values" sheetId="141" r:id="rId4"/>
     <sheet name="DEMAND" sheetId="128" state="hidden" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
+    <definedName name="FID_1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -601,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L50" authorId="1" shapeId="0" xr:uid="{E12DFC98-BDBE-41C8-913D-AF5DC4173962}">
+    <comment ref="L49" authorId="1" shapeId="0" xr:uid="{E12DFC98-BDBE-41C8-913D-AF5DC4173962}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -689,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="177">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1039,51 +1034,27 @@
     <t>H2 for power generation</t>
   </si>
   <si>
-    <t>FERT</t>
-  </si>
-  <si>
     <t>H2 demand for fertilizers production</t>
   </si>
   <si>
-    <t>REF</t>
-  </si>
-  <si>
     <t>H2 demand for refineries</t>
   </si>
   <si>
-    <t>STEEL</t>
-  </si>
-  <si>
     <t>H2 demand for steel production</t>
   </si>
   <si>
-    <t>AVI</t>
-  </si>
-  <si>
     <t>SF demand for aviation</t>
   </si>
   <si>
-    <t>CARS</t>
-  </si>
-  <si>
     <t>H2 demand for cars</t>
   </si>
   <si>
-    <t>RAIL</t>
-  </si>
-  <si>
     <t>H2 demand for rail</t>
   </si>
   <si>
-    <t>TRUCKS</t>
-  </si>
-  <si>
     <t>H2 demand for trucks</t>
   </si>
   <si>
-    <t>HEAT_PLANT</t>
-  </si>
-  <si>
     <t>H2 demand for heating</t>
   </si>
   <si>
@@ -1096,139 +1067,154 @@
     <t>H2 for city buses</t>
   </si>
   <si>
-    <t>BUS</t>
-  </si>
-  <si>
     <t>H2 demand for city transport</t>
   </si>
   <si>
+    <t>Share of inputs</t>
+  </si>
+  <si>
+    <t>Udział pochodzący z inputów</t>
+  </si>
+  <si>
+    <t>Roczna wartość popytu WODÓR ODNAWIALNY(mln ton H2)</t>
+  </si>
+  <si>
+    <t>Hydrogen (mln tonnes)</t>
+  </si>
+  <si>
+    <t>mln tonnes</t>
+  </si>
+  <si>
+    <t>Sprawność 68% oznacza, że 68% energii dostarczonej zostaje zamienione na energię chemiczną wodoru</t>
+  </si>
+  <si>
+    <t>wartość opałowa</t>
+  </si>
+  <si>
+    <t>MJ/kg</t>
+  </si>
+  <si>
+    <t>więc</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>Zapotrz.dzienne</t>
+  </si>
+  <si>
+    <t>fert</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>Whole demand of electricity system in Poland</t>
+  </si>
+  <si>
+    <t>Total electricity demand of the system</t>
+  </si>
+  <si>
+    <t>Electricity (PJ)</t>
+  </si>
+  <si>
+    <t>IND_FERT_H2G</t>
+  </si>
+  <si>
+    <t>IND_REF_H2G</t>
+  </si>
+  <si>
+    <t>IND_STEEL_H2G</t>
+  </si>
+  <si>
+    <t>IND_TRA_AVI_SAF</t>
+  </si>
+  <si>
+    <t>PP_H2G</t>
+  </si>
+  <si>
+    <t>TRA_CAR_H2G</t>
+  </si>
+  <si>
+    <t>TRA_RAIL_H2G</t>
+  </si>
+  <si>
+    <t>TRA_TRUCK_H2G</t>
+  </si>
+  <si>
+    <t>TRA_BUS_H2G</t>
+  </si>
+  <si>
+    <t>HT_H2G</t>
+  </si>
+  <si>
+    <t>DMD_ELC_TOT</t>
+  </si>
+  <si>
+    <t>H2G_GRID</t>
+  </si>
+  <si>
+    <t>H2 from pipeline</t>
+  </si>
+  <si>
+    <t>H2 from trucks shipping</t>
+  </si>
+  <si>
+    <t>H2G_TRUCK</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>ELC_GRID</t>
+  </si>
+  <si>
+    <t>Electricity from the grid total</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>ELC_GRID_RES</t>
+  </si>
+  <si>
+    <t>Electricity from the grid from OZE</t>
+  </si>
+  <si>
+    <t>DMD_IND_FERT_H2G</t>
+  </si>
+  <si>
+    <t>DMD_IND_REF_H2G</t>
+  </si>
+  <si>
+    <t>DMD_IND_STEEL_H2G</t>
+  </si>
+  <si>
+    <t>DMD_TRA_AVI_H2G</t>
+  </si>
+  <si>
+    <t>DMD_TRA_CARS_H2G</t>
+  </si>
+  <si>
+    <t>DMD_TRA_BUS_H2G</t>
+  </si>
+  <si>
+    <t>DMD_TRA_RAIL_H2G</t>
+  </si>
+  <si>
+    <t>DMD_TRA_TRUCK_H2G</t>
+  </si>
+  <si>
+    <t>DMD_HT_H2G</t>
+  </si>
+  <si>
+    <t>DMD_ELE_PP_H2G</t>
+  </si>
+  <si>
+    <t>DEM_OTHER_ELC</t>
+  </si>
+  <si>
     <t>SHARE~2030~FX</t>
-  </si>
-  <si>
-    <t>Share of inputs</t>
-  </si>
-  <si>
-    <t>Udział pochodzący z inputów</t>
-  </si>
-  <si>
-    <t>Roczna wartość popytu WODÓR ODNAWIALNY(mln ton H2)</t>
-  </si>
-  <si>
-    <t>Hydrogen (mln tonnes)</t>
-  </si>
-  <si>
-    <t>mln tonnes</t>
-  </si>
-  <si>
-    <t>MAT</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>ELECTR</t>
-  </si>
-  <si>
-    <t>Electrolisers demand for power</t>
-  </si>
-  <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>Sprawność 68% oznacza, że 68% energii dostarczonej zostaje zamienione na energię chemiczną wodoru</t>
-  </si>
-  <si>
-    <t>wartość opałowa</t>
-  </si>
-  <si>
-    <t>MJ/kg</t>
-  </si>
-  <si>
-    <t>więc</t>
-  </si>
-  <si>
-    <t>SUMA</t>
-  </si>
-  <si>
-    <t>Zapotrz.dzienne</t>
-  </si>
-  <si>
-    <t>fert</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>OTHER_DEM</t>
-  </si>
-  <si>
-    <t>Whole demand of electricity system in Poland</t>
-  </si>
-  <si>
-    <t>Total electricity demand of the system</t>
-  </si>
-  <si>
-    <t>Electricity (PJ)</t>
-  </si>
-  <si>
-    <t>IND_FERT_H2G</t>
-  </si>
-  <si>
-    <t>IND_REF_H2G</t>
-  </si>
-  <si>
-    <t>IND_STEEL_H2G</t>
-  </si>
-  <si>
-    <t>IND_TRA_AVI_SAF</t>
-  </si>
-  <si>
-    <t>PP_H2G</t>
-  </si>
-  <si>
-    <t>TRA_CAR_H2G</t>
-  </si>
-  <si>
-    <t>TRA_RAIL_H2G</t>
-  </si>
-  <si>
-    <t>TRA_TRUCK_H2G</t>
-  </si>
-  <si>
-    <t>TRA_BUS_H2G</t>
-  </si>
-  <si>
-    <t>HT_H2G</t>
-  </si>
-  <si>
-    <t>DMD_ELC_TOT</t>
-  </si>
-  <si>
-    <t>H2G_GRID</t>
-  </si>
-  <si>
-    <t>H2 from pipeline</t>
-  </si>
-  <si>
-    <t>H2 from trucks shipping</t>
-  </si>
-  <si>
-    <t>H2G_TRUCK</t>
-  </si>
-  <si>
-    <t>ELC_GRID</t>
-  </si>
-  <si>
-    <t>Electricity from the grid total</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
-    <t>ELC_GRID_RES</t>
-  </si>
-  <si>
-    <t>Electricity from the grid from OZE</t>
   </si>
 </sst>
 </file>
@@ -4166,7 +4152,7 @@
     <xf numFmtId="0" fontId="114" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4244,8 +4230,6 @@
     <xf numFmtId="0" fontId="5" fillId="44" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="44" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="44" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="5" fillId="44" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="44" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="185" fontId="0" fillId="43" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4296,36 +4280,35 @@
     <xf numFmtId="0" fontId="5" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="185" fontId="5" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="184" fontId="43" fillId="43" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="109" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="39" borderId="0" xfId="791" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="184" fontId="116" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="116" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="184" fontId="116" fillId="43" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="116" fillId="43" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="109" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="0" xfId="791" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1263">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5611,7 +5594,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>292101</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>58882</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8051800" cy="524246"/>
@@ -6222,256 +6205,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IEA Data"/>
-      <sheetName val="E&amp;D Drivers"/>
-      <sheetName val="AGR_Fuels"/>
-      <sheetName val="AGR"/>
-      <sheetName val="RES_Fuels"/>
-      <sheetName val="RH1"/>
-      <sheetName val="RH2"/>
-      <sheetName val="RH3"/>
-      <sheetName val="RH4"/>
-      <sheetName val="RC1"/>
-      <sheetName val="RC2"/>
-      <sheetName val="RC3"/>
-      <sheetName val="RC4"/>
-      <sheetName val="RHW"/>
-      <sheetName val="RRF"/>
-      <sheetName val="RCW"/>
-      <sheetName val="RCD"/>
-      <sheetName val="RK1"/>
-      <sheetName val="RK2"/>
-      <sheetName val="RK3"/>
-      <sheetName val="RK4"/>
-      <sheetName val="RDW"/>
-      <sheetName val="RME"/>
-      <sheetName val="RL1"/>
-      <sheetName val="RL2"/>
-      <sheetName val="RL3"/>
-      <sheetName val="RL4"/>
-      <sheetName val="COM_Fuels"/>
-      <sheetName val="CH1"/>
-      <sheetName val="CH2"/>
-      <sheetName val="CH3"/>
-      <sheetName val="CH4"/>
-      <sheetName val="CC1"/>
-      <sheetName val="CC2"/>
-      <sheetName val="CC3"/>
-      <sheetName val="CC4"/>
-      <sheetName val="CHW"/>
-      <sheetName val="CAA"/>
-      <sheetName val="CLA"/>
-      <sheetName val="ElastPar"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="Intro"/>
-      <sheetName val="TechRep"/>
-      <sheetName val="Other_HYDRO"/>
-      <sheetName val="Other_NUCL"/>
-      <sheetName val="Other_THERM"/>
-      <sheetName val="Other_CHP"/>
-      <sheetName val="Other_RENEW"/>
-      <sheetName val="Other_HEAT"/>
-      <sheetName val="ELC_FUELS"/>
-      <sheetName val="ELC"/>
-      <sheetName val="HEAT"/>
-      <sheetName val="CHP"/>
-      <sheetName val="ELC_EMI"/>
-      <sheetName val="Constant Table"/>
-      <sheetName val="ANS_ITEMS_DEL"/>
-      <sheetName val="ANS_ITEMS"/>
-      <sheetName val="ANS_TIDDATA"/>
-      <sheetName val="ANS_TSDATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>^FI_ST: TCH, PRC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ELC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="29">
-          <cell r="BE29">
-            <v>0.8</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="System"/>
-      <sheetName val="End_use"/>
-      <sheetName val="Heating"/>
-      <sheetName val="Steel"/>
-      <sheetName val="Chemical"/>
-      <sheetName val="Refineries"/>
-      <sheetName val="Transport"/>
-      <sheetName val="PRZEMYSŁ-RFNBO"/>
-      <sheetName val="Transport_lotniczy"/>
-      <sheetName val="Trans_Data"/>
-      <sheetName val="Trans_Data_Eurostat"/>
-      <sheetName val="Data_EHO"/>
-      <sheetName val="Data_ENTSO"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="4">
-          <cell r="E4">
-            <v>211800</v>
-          </cell>
-          <cell r="F4">
-            <v>305300</v>
-          </cell>
-          <cell r="G4">
-            <v>407100</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>16600</v>
-          </cell>
-          <cell r="F5">
-            <v>90100</v>
-          </cell>
-          <cell r="G5">
-            <v>341600</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>42000</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8">
-            <v>10800</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>1250</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10">
-            <v>7200</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24">
-            <v>7043308.6832639994</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26">
-            <v>3190401.7967505143</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Alicja Ossera" id="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" userId="95a19d6e4dcee85b" providerId="Windows Live"/>
@@ -6826,7 +6559,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="L50" dT="2025-07-01T18:12:17.79" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{E12DFC98-BDBE-41C8-913D-AF5DC4173962}">
+  <threadedComment ref="L49" dT="2025-07-01T18:12:17.79" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{E12DFC98-BDBE-41C8-913D-AF5DC4173962}">
     <text>„wodór jako paliwo przyszłości”</text>
   </threadedComment>
 </ThreadedComments>
@@ -6879,8 +6612,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7011,45 +6744,45 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="104" t="s">
-        <v>142</v>
+      <c r="C8" s="94" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="94" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="106" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="106" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="106" t="s">
-        <v>142</v>
+      <c r="C9" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="79" t="s">
+      <c r="C10" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="85" t="s">
-        <v>142</v>
+      <c r="E10" s="83" t="s">
+        <v>132</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
@@ -7060,14 +6793,14 @@
       <c r="B11" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="80" t="s">
+      <c r="C11" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="86" t="s">
-        <v>142</v>
+      <c r="E11" s="84" t="s">
+        <v>132</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
@@ -7078,14 +6811,14 @@
       <c r="B12" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="79" t="s">
+      <c r="C12" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="85" t="s">
-        <v>142</v>
+      <c r="E12" s="83" t="s">
+        <v>132</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
@@ -7096,14 +6829,14 @@
       <c r="B13" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="80" t="s">
+      <c r="C13" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="86" t="s">
-        <v>142</v>
+      <c r="E13" s="84" t="s">
+        <v>132</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
@@ -7114,14 +6847,14 @@
       <c r="B14" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="79" t="s">
+      <c r="C14" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="85" t="s">
-        <v>142</v>
+      <c r="E14" s="83" t="s">
+        <v>132</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
@@ -7132,14 +6865,14 @@
       <c r="B15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="80" t="s">
+      <c r="C15" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="86" t="s">
-        <v>142</v>
+      <c r="E15" s="84" t="s">
+        <v>132</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
@@ -7150,14 +6883,14 @@
       <c r="B16" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="79" t="s">
+      <c r="C16" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="85" t="s">
-        <v>142</v>
+      <c r="E16" s="83" t="s">
+        <v>132</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -7165,17 +6898,17 @@
       <c r="I16" s="40"/>
     </row>
     <row r="17" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>142</v>
+      <c r="C17" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>132</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -7186,14 +6919,14 @@
       <c r="B18" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="80" t="s">
+      <c r="C18" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="86" t="s">
-        <v>142</v>
+      <c r="E18" s="84" t="s">
+        <v>132</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -7204,14 +6937,14 @@
       <c r="B19" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="79" t="s">
+      <c r="C19" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="85" t="s">
-        <v>142</v>
+      <c r="E19" s="83" t="s">
+        <v>132</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
@@ -7219,55 +6952,56 @@
       <c r="I19" s="40"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" t="s">
         <v>25</v>
       </c>
+      <c r="G20" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="13.9" customHeight="1">
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="104" t="s">
+      <c r="C21" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="H21" s="104"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="94"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="104"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -7280,10 +7014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:J32"/>
+  <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7430,429 +7164,351 @@
         <v>53</v>
       </c>
       <c r="D8" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="47" t="s">
-        <v>117</v>
-      </c>
       <c r="F8" s="47" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>143</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="35"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
       <c r="B9" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="81" t="str">
-        <f>H8</f>
-        <v>ANNUAL</v>
-      </c>
-      <c r="I9" s="85" t="s">
-        <v>143</v>
-      </c>
+      <c r="D9" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="79"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="36"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="81" t="str">
-        <f t="shared" ref="H10:H17" si="0">H9</f>
-        <v>ANNUAL</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F10" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="79"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="37"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="81" t="str">
-        <f t="shared" si="0"/>
-        <v>ANNUAL</v>
-      </c>
-      <c r="I11" s="79" t="s">
-        <v>143</v>
-      </c>
+      <c r="D11" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="79"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="40"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="81" t="str">
-        <f t="shared" si="0"/>
-        <v>ANNUAL</v>
-      </c>
-      <c r="I12" s="80" t="s">
-        <v>143</v>
-      </c>
+      <c r="D12" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="79"/>
+      <c r="I12" s="78"/>
       <c r="J12" s="43"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="81" t="str">
-        <f t="shared" si="0"/>
-        <v>ANNUAL</v>
-      </c>
-      <c r="I13" s="79" t="s">
-        <v>143</v>
-      </c>
+      <c r="D13" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="79"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="40"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="81" t="str">
-        <f t="shared" si="0"/>
-        <v>ANNUAL</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="79"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="37"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="81" t="str">
-        <f t="shared" si="0"/>
-        <v>ANNUAL</v>
-      </c>
-      <c r="I15" s="79" t="s">
-        <v>143</v>
-      </c>
+      <c r="D15" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="79"/>
+      <c r="I15" s="77"/>
       <c r="J15" s="40"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="81" t="str">
-        <f t="shared" si="0"/>
-        <v>ANNUAL</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="79"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="37"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="79" t="s">
+      <c r="D17" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="81" t="str">
-        <f t="shared" si="0"/>
-        <v>ANNUAL</v>
-      </c>
-      <c r="I17" s="79" t="s">
-        <v>143</v>
-      </c>
+      <c r="G17" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="79"/>
+      <c r="I17" s="77"/>
       <c r="J17" s="40"/>
     </row>
-    <row r="18" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B18" s="91" t="s">
+    <row r="18" spans="2:10">
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="18"/>
+      <c r="C27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>64</v>
+      <c r="B28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="18" t="s">
+      <c r="B29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B32" s="19" t="s">
+    <row r="31" spans="2:10" ht="13.5" thickBot="1">
+      <c r="B31" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7861,10 +7517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:U51"/>
+  <dimension ref="B2:U53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7875,30 +7531,31 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="8" width="16.28515625" customWidth="1"/>
+    <col min="7" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C2" s="9"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:9">
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1">
+    <row r="4" spans="2:9" ht="15.75" customHeight="1">
       <c r="E4" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1">
       <c r="B5" s="16" t="s">
         <v>31</v>
       </c>
@@ -7917,11 +7574,14 @@
       <c r="G5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="31.9" customHeight="1">
+      <c r="H5" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="31.9" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>82</v>
       </c>
@@ -7940,11 +7600,12 @@
       <c r="G6" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="31.9" customHeight="1" thickBot="1">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="31.9" customHeight="1" thickBot="1">
       <c r="B7" s="34" t="s">
         <v>87</v>
       </c>
@@ -7963,711 +7624,722 @@
       <c r="G7" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1">
+      <c r="H7" s="34"/>
+      <c r="I7" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
       <c r="B8" s="51" t="str">
         <f>SEC_Processes!D8</f>
-        <v>FERT</v>
+        <v>DMD_IND_FERT_H2G</v>
       </c>
       <c r="C8" s="52" t="str">
         <f>SEC_Processes!E8</f>
         <v>H2 demand for fertilizers production</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="54"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B9" s="50"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88" t="str">
+      <c r="D8" s="86" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="64">
-        <f>1-[2]ELC!$BE$29</f>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86">
+        <v>1</v>
+      </c>
+      <c r="G8" s="39">
+        <v>1</v>
+      </c>
+      <c r="H8" s="39">
+        <v>1</v>
+      </c>
+      <c r="I8" s="62">
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B10" s="50"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88" t="str">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B9" s="50"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="64">
-        <f>[2]ELC!$BE$29</f>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="62">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B11" s="50"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88" t="str">
+    <row r="10" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B10" s="50"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86" t="str">
         <f>SEC_Comm!C10</f>
         <v>IND_FERT_H2G</v>
       </c>
+      <c r="F10" s="87"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.6" customHeight="1">
+      <c r="B11" s="53" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>DMD_IND_REF_H2G</v>
+      </c>
+      <c r="C11" s="88" t="str">
+        <f>SEC_Processes!E9</f>
+        <v>H2 demand for refineries</v>
+      </c>
       <c r="F11" s="88">
         <v>1</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="42">
         <v>1</v>
       </c>
-      <c r="H11" s="64"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.6" customHeight="1">
-      <c r="B12" s="55" t="str">
-        <f>SEC_Processes!D9</f>
-        <v>REF</v>
-      </c>
-      <c r="C12" s="90" t="str">
-        <f>SEC_Processes!E9</f>
-        <v>H2 demand for refineries</v>
-      </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="56"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.6" customHeight="1">
-      <c r="B13" s="55"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="88" t="str">
+      <c r="H11" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.6" customHeight="1">
+      <c r="B12" s="53"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="86" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="64">
-        <f>1-[2]ELC!$BE$29</f>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="62">
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.6" customHeight="1">
-      <c r="B14" s="55"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="88" t="str">
+    <row r="13" spans="2:9" ht="15.6" customHeight="1">
+      <c r="B13" s="53"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="86" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="64">
-        <f>[2]ELC!$BE$29</f>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="62">
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.6" customHeight="1">
-      <c r="B15" s="55"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90" t="str">
+    <row r="14" spans="2:9" ht="15.6" customHeight="1">
+      <c r="B14" s="53"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88" t="str">
         <f>SEC_Comm!C11</f>
         <v>IND_REF_H2G</v>
       </c>
-      <c r="F15" s="90">
-        <v>1</v>
-      </c>
-      <c r="G15" s="42">
-        <v>1</v>
-      </c>
-      <c r="H15" s="56"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="50" t="str">
+      <c r="I14" s="54"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="50" t="str">
         <f>SEC_Processes!D10</f>
-        <v>STEEL</v>
-      </c>
-      <c r="C16" s="88" t="str">
+        <v>DMD_IND_STEEL_H2G</v>
+      </c>
+      <c r="C15" s="86" t="str">
         <f>SEC_Processes!E10</f>
         <v>H2 demand for steel production</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39">
+        <v>1</v>
+      </c>
+      <c r="G15" s="39">
+        <f>G8</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="39">
+        <v>1</v>
+      </c>
+      <c r="I15" s="62"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="50"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="39" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>H2G_GRID</v>
+      </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="64"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="H16" s="39"/>
+      <c r="I16" s="62">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="50"/>
-      <c r="C17" s="88"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="39" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>H2G_GRID</v>
+        <f>SEC_Comm!C9</f>
+        <v>H2G_TRUCK</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
-      <c r="H17" s="64">
-        <f>1-[2]ELC!$BE$29</f>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="H17" s="39"/>
+      <c r="I17" s="62">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="50"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="39" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>H2G_TRUCK</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="64">
-        <f>[2]ELC!$BE$29</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="50"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39" t="str">
+      <c r="C18" s="86"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39" t="str">
         <f>SEC_Comm!C12</f>
         <v>IND_STEEL_H2G</v>
       </c>
-      <c r="F19" s="39">
+      <c r="I18" s="62"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="53" t="str">
+        <f>SEC_Processes!D11</f>
+        <v>DMD_TRA_AVI_H2G</v>
+      </c>
+      <c r="C19" s="88" t="str">
+        <f>SEC_Processes!E11</f>
+        <v>SF demand for aviation</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42">
         <v>1</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="42">
         <f>G11</f>
         <v>1</v>
       </c>
-      <c r="H19" s="64"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="55" t="str">
-        <f>SEC_Processes!D11</f>
-        <v>AVI</v>
-      </c>
-      <c r="C20" s="90" t="str">
-        <f>SEC_Processes!E11</f>
-        <v>SF demand for aviation</v>
-      </c>
-      <c r="D20" s="42"/>
+      <c r="H19" s="42">
+        <v>1</v>
+      </c>
+      <c r="I19" s="54"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="53"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="42" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>H2G_GRID</v>
+      </c>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="56"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="55"/>
-      <c r="C21" s="90"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="62">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="53"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="42" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>H2G_GRID</v>
+        <f>SEC_Comm!C9</f>
+        <v>H2G_TRUCK</v>
       </c>
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="64">
-        <f>1-[2]ELC!$BE$29</f>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="55"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="42" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>H2G_TRUCK</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="64">
-        <f>[2]ELC!$BE$29</f>
+      <c r="H21" s="42"/>
+      <c r="I21" s="62">
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="55"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42" t="str">
+    <row r="22" spans="2:9">
+      <c r="B22" s="53"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42" t="str">
         <f>SEC_Comm!C13</f>
         <v>IND_TRA_AVI_SAF</v>
       </c>
-      <c r="F23" s="42">
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="50" t="str">
+        <f>SEC_Processes!D12</f>
+        <v>DMD_TRA_CARS_H2G</v>
+      </c>
+      <c r="C23" s="86" t="str">
+        <f>SEC_Processes!E12</f>
+        <v>H2 demand for cars</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39">
         <v>1</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="39">
         <f>G15</f>
         <v>1</v>
       </c>
-      <c r="H23" s="56"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="50" t="str">
-        <f>SEC_Processes!D12</f>
-        <v>CARS</v>
-      </c>
-      <c r="C24" s="88" t="str">
-        <f>SEC_Processes!E12</f>
-        <v>H2 demand for cars</v>
-      </c>
-      <c r="D24" s="39"/>
+      <c r="H23" s="39">
+        <v>1</v>
+      </c>
+      <c r="I23" s="62"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="50"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="39" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>H2G_GRID</v>
+      </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
-      <c r="H24" s="64"/>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="H24" s="39"/>
+      <c r="I24" s="62">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="50"/>
-      <c r="C25" s="88"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="39" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>H2G_GRID</v>
+        <f>SEC_Comm!C9</f>
+        <v>H2G_TRUCK</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
-      <c r="H25" s="64">
-        <f>1-[2]ELC!$BE$29</f>
+      <c r="H25" s="39"/>
+      <c r="I25" s="62">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="50"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39" t="str">
+        <f>SEC_Comm!C14</f>
+        <v>TRA_CAR_H2G</v>
+      </c>
+      <c r="I26" s="62"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="53" t="str">
+        <f>SEC_Processes!D13</f>
+        <v>DMD_TRA_BUS_H2G</v>
+      </c>
+      <c r="C27" s="88" t="str">
+        <f>SEC_Processes!E13</f>
+        <v>H2 demand for city transport</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="F27" s="42">
+        <v>1</v>
+      </c>
+      <c r="G27" s="42">
+        <f>G19</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="42">
+        <v>1</v>
+      </c>
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="53"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="42" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>H2G_GRID</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="62">
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="50"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="39" t="str">
+    <row r="29" spans="2:9">
+      <c r="B29" s="53"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="42" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="64">
-        <f>[2]ELC!$BE$29</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="50"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39" t="str">
-        <f>SEC_Comm!C14</f>
-        <v>TRA_CAR_H2G</v>
-      </c>
-      <c r="F27" s="39">
-        <v>1</v>
-      </c>
-      <c r="G27" s="39">
-        <f t="shared" ref="G27" si="0">G19</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="64"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="55" t="str">
-        <f>SEC_Processes!D13</f>
-        <v>BUS</v>
-      </c>
-      <c r="C28" s="90" t="str">
-        <f>SEC_Processes!E13</f>
-        <v>H2 demand for city transport</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="56"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="55"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="42" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>H2G_GRID</v>
       </c>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
-      <c r="H29" s="64">
-        <f>1-[2]ELC!$BE$29</f>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="55"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="42" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>H2G_TRUCK</v>
-      </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="64">
-        <f>[2]ELC!$BE$29</f>
+      <c r="H29" s="42"/>
+      <c r="I29" s="62">
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="55"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42" t="str">
+    <row r="30" spans="2:9">
+      <c r="B30" s="53"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42" t="str">
         <f>SEC_Comm!C17</f>
         <v>TRA_BUS_H2G</v>
       </c>
-      <c r="F31" s="42">
-        <v>1</v>
-      </c>
-      <c r="G31" s="42">
-        <f t="shared" ref="G31" si="1">G23</f>
-        <v>1</v>
-      </c>
-      <c r="H31" s="56"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="50" t="str">
+      <c r="I30" s="54"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="50" t="str">
         <f>SEC_Processes!D14</f>
-        <v>RAIL</v>
-      </c>
-      <c r="C32" s="88" t="str">
+        <v>DMD_TRA_RAIL_H2G</v>
+      </c>
+      <c r="C31" s="86" t="str">
         <f>SEC_Processes!E14</f>
         <v>H2 demand for rail</v>
       </c>
-      <c r="D32" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39">
+        <v>1</v>
+      </c>
+      <c r="G31" s="39">
+        <f>G23</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="39">
+        <v>1</v>
+      </c>
+      <c r="I31" s="62"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="50"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="39" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>H2G_GRID</v>
+      </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
-      <c r="H32" s="64"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="62">
+        <v>0.19999999999999996</v>
+      </c>
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="50"/>
-      <c r="C33" s="88"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="39" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>H2G_GRID</v>
+        <f>SEC_Comm!C9</f>
+        <v>H2G_TRUCK</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
-      <c r="H33" s="64">
-        <f>1-[2]ELC!$BE$29</f>
-        <v>0.19999999999999996</v>
+      <c r="H33" s="39"/>
+      <c r="I33" s="62">
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="50"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="39" t="str">
+      <c r="C34" s="86"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39" t="str">
+        <f>SEC_Comm!C15</f>
+        <v>TRA_RAIL_H2G</v>
+      </c>
+      <c r="I34" s="62"/>
+    </row>
+    <row r="35" spans="2:21">
+      <c r="B35" s="53" t="str">
+        <f>SEC_Processes!D15</f>
+        <v>DMD_TRA_TRUCK_H2G</v>
+      </c>
+      <c r="C35" s="88" t="str">
+        <f>SEC_Processes!E15</f>
+        <v>H2 demand for trucks</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="F35" s="42">
+        <v>1</v>
+      </c>
+      <c r="G35" s="42">
+        <f>G27</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="42">
+        <v>1</v>
+      </c>
+      <c r="I35" s="54"/>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" s="53"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="42" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>H2G_GRID</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="62">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="53"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="42" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
-      </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="64">
-        <f>[2]ELC!$BE$29</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21">
-      <c r="B35" s="50"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39" t="str">
-        <f>SEC_Comm!C15</f>
-        <v>TRA_RAIL_H2G</v>
-      </c>
-      <c r="F35" s="39">
-        <v>1</v>
-      </c>
-      <c r="G35" s="39">
-        <f t="shared" ref="G35" si="2">G27</f>
-        <v>1</v>
-      </c>
-      <c r="H35" s="64"/>
-    </row>
-    <row r="36" spans="2:21">
-      <c r="B36" s="55" t="str">
-        <f>SEC_Processes!D15</f>
-        <v>TRUCKS</v>
-      </c>
-      <c r="C36" s="90" t="str">
-        <f>SEC_Processes!E15</f>
-        <v>H2 demand for trucks</v>
-      </c>
-      <c r="D36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="56"/>
-    </row>
-    <row r="37" spans="2:21">
-      <c r="B37" s="55"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="42" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>H2G_GRID</v>
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
-      <c r="H37" s="64">
-        <f>1-[2]ELC!$BE$29</f>
-        <v>0.19999999999999996</v>
+      <c r="H37" s="42"/>
+      <c r="I37" s="62">
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="2:21">
-      <c r="B38" s="55"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="42" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>H2G_TRUCK</v>
-      </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="64">
-        <f>[2]ELC!$BE$29</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21">
-      <c r="B39" s="55"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42" t="str">
+      <c r="B38" s="53"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42" t="str">
         <f>SEC_Comm!C16</f>
         <v>TRA_TRUCK_H2G</v>
       </c>
-      <c r="F39" s="42">
-        <v>1</v>
-      </c>
-      <c r="G39" s="42">
-        <f t="shared" ref="G39" si="3">G31</f>
-        <v>1</v>
-      </c>
-      <c r="H39" s="56"/>
-    </row>
-    <row r="40" spans="2:21">
-      <c r="B40" s="50" t="str">
+      <c r="I38" s="54"/>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="B39" s="50" t="str">
         <f>SEC_Processes!D16</f>
-        <v>HEAT_PLANT</v>
-      </c>
-      <c r="C40" s="88" t="str">
+        <v>DMD_HT_H2G</v>
+      </c>
+      <c r="C39" s="86" t="str">
         <f>SEC_Processes!E16</f>
         <v>H2 demand for heating</v>
       </c>
-      <c r="D40" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="39">
+        <f>G31</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" s="50"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="39" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>H2G_GRID</v>
+      </c>
       <c r="E40" s="39"/>
       <c r="F40" s="39"/>
       <c r="G40" s="39"/>
-      <c r="H40" s="64"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="62">
+        <v>0.19999999999999996</v>
+      </c>
     </row>
     <row r="41" spans="2:21">
       <c r="B41" s="50"/>
-      <c r="C41" s="88"/>
+      <c r="C41" s="86"/>
       <c r="D41" s="39" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>H2G_GRID</v>
+        <f>SEC_Comm!C9</f>
+        <v>H2G_TRUCK</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
-      <c r="H41" s="64">
-        <f>1-[2]ELC!$BE$29</f>
-        <v>0.19999999999999996</v>
+      <c r="H41" s="39"/>
+      <c r="I41" s="62">
+        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="2:21">
       <c r="B42" s="50"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="39" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>H2G_TRUCK</v>
-      </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="64">
-        <f>[2]ELC!$BE$29</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21">
-      <c r="B43" s="50"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39" t="str">
+      <c r="C42" s="86"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39" t="str">
         <f>SEC_Comm!C18</f>
         <v>HT_H2G</v>
       </c>
-      <c r="F43" s="39">
-        <v>1</v>
-      </c>
-      <c r="G43" s="39">
-        <f t="shared" ref="G43" si="4">G35</f>
-        <v>1</v>
-      </c>
-      <c r="H43" s="64"/>
-    </row>
-    <row r="44" spans="2:21">
-      <c r="B44" s="55" t="str">
+      <c r="I42" s="62"/>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43" s="53" t="str">
         <f>SEC_Processes!D17</f>
-        <v>H2_PP</v>
-      </c>
-      <c r="C44" s="90" t="str">
+        <v>DMD_ELE_PP_H2G</v>
+      </c>
+      <c r="C43" s="88" t="str">
         <f>SEC_Processes!E17</f>
         <v>H2 demand for power generation</v>
       </c>
-      <c r="D44" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42">
+        <v>1</v>
+      </c>
+      <c r="G43" s="42">
+        <f>G35</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="42">
+        <v>1</v>
+      </c>
+      <c r="I43" s="54"/>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="63"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>H2G_GRID</v>
+      </c>
       <c r="E44" s="42"/>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
-      <c r="H44" s="56"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="62">
+        <v>0.19999999999999996</v>
+      </c>
     </row>
     <row r="45" spans="2:21">
-      <c r="B45" s="65"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="42"/>
       <c r="D45" s="42" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>H2G_GRID</v>
+        <f>SEC_Comm!C9</f>
+        <v>H2G_TRUCK</v>
       </c>
       <c r="E45" s="42"/>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
-      <c r="H45" s="64">
-        <f>1-[2]ELC!$BE$29</f>
-        <v>0.19999999999999996</v>
+      <c r="H45" s="42"/>
+      <c r="I45" s="62">
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="2:21">
-      <c r="B46" s="65"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="42"/>
-      <c r="D46" s="42" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>H2G_TRUCK</v>
-      </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="64">
-        <f>[2]ELC!$BE$29</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21">
-      <c r="B47" s="65"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42" t="str">
+      <c r="D46" s="42"/>
+      <c r="E46" s="42" t="str">
         <f>SEC_Comm!C19</f>
         <v>PP_H2G</v>
       </c>
-      <c r="F47" s="42">
+      <c r="I46" s="54"/>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47" s="50" t="str">
+        <f>SEC_Processes!D18</f>
+        <v>DEM_OTHER_ELC</v>
+      </c>
+      <c r="C47" s="86" t="str">
+        <f>SEC_Processes!E18</f>
+        <v>Whole demand of electricity system in Poland</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39">
         <v>1</v>
       </c>
-      <c r="G47" s="42">
-        <f t="shared" ref="G47" si="5">G39</f>
+      <c r="G47" s="39">
         <v>1</v>
       </c>
-      <c r="H47" s="56"/>
+      <c r="H47" s="39">
+        <v>1</v>
+      </c>
+      <c r="L47" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="M47" s="98"/>
+      <c r="N47" s="98"/>
+      <c r="O47" s="98"/>
+      <c r="P47" s="98"/>
+      <c r="Q47" s="98"/>
+      <c r="R47" s="98"/>
+      <c r="S47" s="98"/>
+      <c r="T47" s="98"/>
+      <c r="U47" s="98"/>
     </row>
     <row r="48" spans="2:21">
-      <c r="B48" s="50" t="str">
-        <f>SEC_Processes!D19</f>
-        <v>OTHER_DEM</v>
-      </c>
-      <c r="C48" s="88" t="str">
-        <f>SEC_Processes!E19</f>
-        <v>Whole demand of electricity system in Poland</v>
-      </c>
-      <c r="D48" s="39"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="39" t="str">
+        <f>SEC_Comm!C20</f>
+        <v>ELC_GRID</v>
+      </c>
       <c r="E48" s="39"/>
-      <c r="F48" s="39">
-        <v>1</v>
-      </c>
-      <c r="G48" s="39">
-        <v>1</v>
-      </c>
-      <c r="H48" s="64"/>
-      <c r="L48" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="M48" s="97"/>
-      <c r="N48" s="97"/>
-      <c r="O48" s="97"/>
-      <c r="P48" s="97"/>
-      <c r="Q48" s="97"/>
-      <c r="R48" s="97"/>
-      <c r="S48" s="97"/>
-      <c r="T48" s="97"/>
-      <c r="U48" s="97"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="L48" s="89" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" s="50"/>
-      <c r="C49" s="88"/>
+      <c r="C49" s="86"/>
       <c r="D49" s="39" t="str">
         <f>SEC_Comm!C21</f>
-        <v>ELC_GRID</v>
+        <v>ELC_GRID_RES</v>
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
-      <c r="H49" s="64"/>
-      <c r="L49" s="92" t="s">
-        <v>149</v>
+      <c r="H49" s="39"/>
+      <c r="L49">
+        <v>120</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="2:13">
       <c r="B50" s="50"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="39" t="str">
+      <c r="C50" s="86"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39" t="str">
         <f>SEC_Comm!C22</f>
-        <v>ELC_GRID_RES</v>
-      </c>
-      <c r="E50" s="39"/>
+        <v>DMD_ELC_TOT</v>
+      </c>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
-      <c r="H50" s="64"/>
-      <c r="L50">
-        <v>120</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="62"/>
+      <c r="K50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L50" s="1"/>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="50"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39" t="str">
-        <f>SEC_Comm!C20</f>
-        <v>DMD_ELC_TOT</v>
-      </c>
-      <c r="F51" s="39">
-        <v>1</v>
-      </c>
-      <c r="G51" s="39">
-        <v>1</v>
-      </c>
-      <c r="H51" s="64"/>
-      <c r="K51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L51" s="1"/>
+      <c r="I51" s="62"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="I52" s="62"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="I53" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L48:U48"/>
+    <mergeCell ref="L47:U47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8679,8 +8351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F913FC6-85F0-4DE0-A06C-FA6D59278C8D}">
   <dimension ref="B2:R24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8699,7 +8371,7 @@
         <v>93</v>
       </c>
       <c r="N4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O4">
         <f>O8/N8</f>
@@ -8733,7 +8405,7 @@
         <v>2050</v>
       </c>
       <c r="N5" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="O5">
         <f>O9/N9</f>
@@ -8748,176 +8420,170 @@
       <c r="B6" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="74">
+      <c r="C6" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72">
         <v>2022</v>
       </c>
-      <c r="M6" s="74">
+      <c r="M6" s="72">
         <v>2024</v>
       </c>
-      <c r="N6" s="74">
+      <c r="N6" s="72">
         <v>2030</v>
       </c>
-      <c r="O6" s="74">
+      <c r="O6" s="72">
         <v>2035</v>
       </c>
-      <c r="P6" s="74">
+      <c r="P6" s="72">
         <v>2040</v>
       </c>
-      <c r="Q6" s="74">
+      <c r="Q6" s="72">
         <v>2045</v>
       </c>
-      <c r="R6" s="74">
+      <c r="R6" s="72">
         <v>2050</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="59" t="str">
+      <c r="B8" s="57" t="str">
         <f>SEC_Comm!C10</f>
         <v>IND_FERT_H2G</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="66">
+      <c r="C8" s="58"/>
+      <c r="D8" s="64">
         <f>N8</f>
         <v>0.21179999999999999</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="64">
         <f>O8</f>
         <v>0.30530000000000002</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="64">
         <f>P8</f>
         <v>0.40710000000000002</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="64">
         <f t="shared" ref="G8:H9" si="0">Q8</f>
         <v>0.5495850000000001</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="64">
         <f t="shared" si="0"/>
         <v>0.74193975000000023</v>
       </c>
-      <c r="K8" s="75" t="s">
+      <c r="K8" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="76">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$E$4/10^6</f>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74">
         <v>0.21179999999999999</v>
       </c>
-      <c r="O8" s="76">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$F$4/10^6</f>
+      <c r="O8" s="74">
         <v>0.30530000000000002</v>
       </c>
-      <c r="P8" s="76">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$G$4/10^6</f>
+      <c r="P8" s="74">
         <v>0.40710000000000002</v>
       </c>
-      <c r="Q8" s="75">
+      <c r="Q8" s="73">
         <f>P8*1.35</f>
         <v>0.5495850000000001</v>
       </c>
-      <c r="R8" s="75">
+      <c r="R8" s="73">
         <f>Q8*1.35</f>
         <v>0.74193975000000023</v>
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="61" t="str">
+      <c r="B9" s="59" t="str">
         <f>SEC_Comm!C11</f>
         <v>IND_REF_H2G</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="66">
         <f t="shared" ref="D9:D17" si="1">N9</f>
         <v>1.66E-2</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="66">
         <f t="shared" ref="E9:F10" si="2">O9</f>
         <v>9.01E-2</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="66">
         <f t="shared" si="2"/>
         <v>0.34160000000000001</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="66">
         <f t="shared" si="0"/>
         <v>1.0247999999999999</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="66">
         <f t="shared" si="0"/>
         <v>3.0743999999999998</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="76">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$E$5/10^6</f>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="74">
         <v>1.66E-2</v>
       </c>
-      <c r="O9" s="76">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$F$5/10^6</f>
+      <c r="O9" s="74">
         <v>9.01E-2</v>
       </c>
-      <c r="P9" s="76">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$G$5/10^6</f>
+      <c r="P9" s="74">
         <v>0.34160000000000001</v>
       </c>
-      <c r="Q9" s="75">
+      <c r="Q9" s="73">
         <f>P9*3</f>
         <v>1.0247999999999999</v>
       </c>
-      <c r="R9" s="75">
+      <c r="R9" s="73">
         <f>Q9*3</f>
         <v>3.0743999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="62" t="str">
+      <c r="B10" s="60" t="str">
         <f>SEC_Comm!C12</f>
         <v>IND_STEEL_H2G</v>
       </c>
       <c r="C10" s="39"/>
-      <c r="D10" s="67">
+      <c r="D10" s="65">
         <f t="shared" si="1"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="65">
         <f t="shared" si="2"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="65">
         <f t="shared" si="2"/>
         <v>4.2000000000000003E-2</v>
       </c>
@@ -8929,72 +8595,67 @@
         <f>R10</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K10" s="75" t="s">
+      <c r="K10" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="75">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$N$6/10^6</f>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="73">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="O10" s="75">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$N$6/10^6</f>
+      <c r="O10" s="73">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="P10" s="75">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$N$6/10^6</f>
+      <c r="P10" s="73">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="Q10" s="75">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$N$6/10^6</f>
+      <c r="Q10" s="73">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="R10" s="75">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$N$6/10^6</f>
+      <c r="R10" s="73">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="61" t="str">
+      <c r="B11" s="59" t="str">
         <f>SEC_Comm!C13</f>
         <v>IND_TRA_AVI_SAF</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="K11" s="75" t="s">
+      <c r="K11" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="62" t="str">
+      <c r="B12" s="60" t="str">
         <f>SEC_Comm!C14</f>
         <v>TRA_CAR_H2G</v>
       </c>
       <c r="C12" s="39"/>
-      <c r="D12" s="67">
+      <c r="D12" s="65">
         <f t="shared" si="1"/>
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="65">
         <f t="shared" ref="E12" si="3">O12</f>
         <v>1.7689271708159999</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="65">
         <f t="shared" ref="F12" si="4">P12</f>
         <v>3.5270543416319997</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="65">
         <f t="shared" ref="G12" si="5">Q12</f>
         <v>5.2851815124480002</v>
       </c>
@@ -9002,75 +8663,72 @@
         <f>R12</f>
         <v>7.0433086832639997</v>
       </c>
-      <c r="K12" s="75" t="s">
+      <c r="K12" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$N$8/10^6</f>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="O12" s="95">
+      <c r="O12" s="92">
         <f>AVERAGE(N12,P12)</f>
         <v>1.7689271708159999</v>
       </c>
-      <c r="P12" s="95">
+      <c r="P12" s="92">
         <f>AVERAGE(N12,R12)</f>
         <v>3.5270543416319997</v>
       </c>
-      <c r="Q12" s="95">
+      <c r="Q12" s="92">
         <f>AVERAGE(P12,R12)</f>
         <v>5.2851815124480002</v>
       </c>
-      <c r="R12" s="75">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$I$24/10^6</f>
+      <c r="R12" s="73">
         <v>7.0433086832639997</v>
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="61" t="str">
+      <c r="B13" s="59" t="str">
         <f>SEC_Comm!C15</f>
         <v>TRA_RAIL_H2G</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="66">
         <f t="shared" si="1"/>
         <v>1.25E-3</v>
       </c>
       <c r="H13" s="37"/>
-      <c r="K13" s="75" t="s">
+      <c r="K13" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$N$9/10^6</f>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73">
         <v>1.25E-3</v>
       </c>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="62" t="str">
+      <c r="B14" s="60" t="str">
         <f>SEC_Comm!C17</f>
         <v>TRA_BUS_H2G</v>
       </c>
       <c r="C14" s="39"/>
-      <c r="D14" s="67">
+      <c r="D14" s="65">
         <f t="shared" si="1"/>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="65">
         <f t="shared" ref="E14" si="6">O14</f>
         <v>0.8030004491876287</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="65">
         <f t="shared" ref="F14" si="7">P14</f>
         <v>1.5988008983752573</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="65">
         <f t="shared" ref="G14" si="8">Q14</f>
         <v>2.3946013475628858</v>
       </c>
@@ -9078,39 +8736,37 @@
         <f>R14</f>
         <v>3.1904017967505145</v>
       </c>
-      <c r="K14" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$N$10/10^6</f>
+      <c r="K14" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="O14" s="95">
+      <c r="O14" s="92">
         <f>AVERAGE(N14,P14)</f>
         <v>0.8030004491876287</v>
       </c>
-      <c r="P14" s="95">
+      <c r="P14" s="92">
         <f>AVERAGE(N14,R14)</f>
         <v>1.5988008983752573</v>
       </c>
-      <c r="Q14" s="95">
+      <c r="Q14" s="92">
         <f>AVERAGE(P14,R14)</f>
         <v>2.3946013475628858</v>
       </c>
-      <c r="R14" s="75">
-        <f>'[3]PRZEMYSŁ-RFNBO'!$I$26/10^6</f>
+      <c r="R14" s="73">
         <v>3.1904017967505145</v>
       </c>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="61" t="str">
+      <c r="B15" s="59" t="str">
         <f>SEC_Comm!C16</f>
         <v>TRA_TRUCK_H2G</v>
       </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="68">
+      <c r="D15" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9118,24 +8774,24 @@
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="43"/>
-      <c r="K15" s="75" t="s">
+      <c r="K15" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="62" t="str">
+      <c r="B16" s="60" t="str">
         <f>SEC_Comm!C18</f>
         <v>HT_H2G</v>
       </c>
       <c r="C16" s="39"/>
-      <c r="D16" s="67">
+      <c r="D16" s="65">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
@@ -9151,91 +8807,91 @@
         <f t="shared" si="9"/>
         <v>3.0417499999999997E-2</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="70">
         <f t="shared" si="9"/>
         <v>3.4980124999999994E-2</v>
       </c>
-      <c r="K16" s="75" t="s">
+      <c r="K16" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75">
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73">
         <f>20000/10^6</f>
         <v>0.02</v>
       </c>
-      <c r="O16" s="75">
+      <c r="O16" s="73">
         <f>N16*1.15</f>
         <v>2.3E-2</v>
       </c>
-      <c r="P16" s="75">
+      <c r="P16" s="73">
         <f t="shared" ref="P16:R16" si="10">O16*1.15</f>
         <v>2.6449999999999998E-2</v>
       </c>
-      <c r="Q16" s="75">
+      <c r="Q16" s="73">
         <f t="shared" si="10"/>
         <v>3.0417499999999997E-2</v>
       </c>
-      <c r="R16" s="75">
+      <c r="R16" s="73">
         <f t="shared" si="10"/>
         <v>3.4980124999999994E-2</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B17" s="69" t="str">
+      <c r="B17" s="67" t="str">
         <f>SEC_Comm!C19</f>
         <v>PP_H2G</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="71">
+      <c r="C17" s="55"/>
+      <c r="D17" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
-      <c r="K17" s="75" t="s">
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="K17" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="13"/>
-      <c r="K18" s="93" t="s">
-        <v>152</v>
-      </c>
-      <c r="N18" s="94">
+      <c r="K18" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="N18" s="91">
         <f>SUM(N8:N17)</f>
         <v>0.30964999999999993</v>
       </c>
-      <c r="O18" s="94">
+      <c r="O18" s="91">
         <f t="shared" ref="O18:R18" si="11">SUM(O8:O17)</f>
         <v>3.0323276200036289</v>
       </c>
-      <c r="P18" s="94">
+      <c r="P18" s="91">
         <f t="shared" si="11"/>
         <v>5.9430052400072571</v>
       </c>
-      <c r="Q18" s="94">
+      <c r="Q18" s="91">
         <f t="shared" si="11"/>
         <v>9.3265853600108866</v>
       </c>
-      <c r="R18" s="94">
+      <c r="R18" s="91">
         <f t="shared" si="11"/>
         <v>14.127030355014515</v>
       </c>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="13"/>
-      <c r="K19" s="93" t="s">
-        <v>153</v>
+      <c r="K19" s="90" t="s">
+        <v>138</v>
       </c>
       <c r="N19">
         <f>N18/365</f>
@@ -9286,51 +8942,59 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" ht="25.5">
       <c r="B22" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="98" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
+      <c r="C22" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-    </row>
-    <row r="24" spans="2:18">
-      <c r="B24" s="59" t="str">
-        <f>SEC_Comm!C20</f>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="2:18" ht="12.75" customHeight="1">
+      <c r="B24" s="57" t="str">
+        <f>SEC_Comm!C22</f>
         <v>DMD_ELC_TOT</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="58">
         <v>608.24159999999995</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+      <c r="D24" s="58">
+        <v>608.24159999999995</v>
+      </c>
+      <c r="E24" s="58">
+        <v>608.24159999999995</v>
+      </c>
+      <c r="F24" s="58">
+        <v>608.24159999999995</v>
+      </c>
+      <c r="G24" s="58">
+        <v>608.24159999999995</v>
+      </c>
+      <c r="H24" s="58">
+        <v>608.24159999999995</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="M7:R7"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9405,29 +9069,29 @@
       <c r="B7" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
     </row>
     <row r="8" spans="2:9" ht="36.75" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1">
       <c r="B9" s="13" t="e">
@@ -9466,8 +9130,8 @@
     <row r="11" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="12" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="13" spans="2:9">
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
     </row>
     <row r="14" spans="2:9">
       <c r="C14" s="26"/>

--- a/VT_ModelPL_DEMAND_v1.xlsx
+++ b/VT_ModelPL_DEMAND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\H2-model-v02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F9079-A32F-49DB-A8CE-19B20BA4F57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98621319-09A0-4D15-9704-2518D627597F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="499" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="499" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -620,7 +620,7 @@
     <author>tc={0A154F01-0F2D-4711-97ED-6F01E3C8934A}</author>
   </authors>
   <commentList>
-    <comment ref="Q8" authorId="0" shapeId="0" xr:uid="{A32A2A61-6008-4EFA-94A8-7D4E0B1FF658}">
+    <comment ref="S8" authorId="0" shapeId="0" xr:uid="{A32A2A61-6008-4EFA-94A8-7D4E0B1FF658}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -628,7 +628,7 @@
     Kontynuacja trendu</t>
       </text>
     </comment>
-    <comment ref="Q9" authorId="1" shapeId="0" xr:uid="{5501E185-CFCC-48A6-B673-A090B4BAC491}">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{5501E185-CFCC-48A6-B673-A090B4BAC491}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -636,7 +636,7 @@
     Kontynuacja trendu</t>
       </text>
     </comment>
-    <comment ref="O12" authorId="2" shapeId="0" xr:uid="{A1CE0A75-6E29-4343-8C75-FE4CB122E39C}">
+    <comment ref="Q12" authorId="2" shapeId="0" xr:uid="{A1CE0A75-6E29-4343-8C75-FE4CB122E39C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -644,7 +644,7 @@
     Na potrzeby wymyślenia trajektorii - średnie</t>
       </text>
     </comment>
-    <comment ref="O14" authorId="3" shapeId="0" xr:uid="{9D70653A-7BE9-4080-AC12-E27A52126FB4}">
+    <comment ref="Q14" authorId="3" shapeId="0" xr:uid="{9D70653A-7BE9-4080-AC12-E27A52126FB4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -652,7 +652,7 @@
     Na potrzeby wymyślenia trajektorii - średnie</t>
       </text>
     </comment>
-    <comment ref="N16" authorId="4" shapeId="0" xr:uid="{19C9F95A-48AF-4B96-8A5E-221F5696861C}">
+    <comment ref="P16" authorId="4" shapeId="0" xr:uid="{19C9F95A-48AF-4B96-8A5E-221F5696861C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -660,7 +660,7 @@
     Industrial+residential</t>
       </text>
     </comment>
-    <comment ref="O16" authorId="5" shapeId="0" xr:uid="{949D57D8-FB43-4079-B85C-4919979C506A}">
+    <comment ref="Q16" authorId="5" shapeId="0" xr:uid="{949D57D8-FB43-4079-B85C-4919979C506A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -4152,7 +4152,7 @@
     <xf numFmtId="0" fontId="114" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4309,6 +4309,11 @@
     <xf numFmtId="184" fontId="5" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="44" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="43" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1263">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6567,22 +6572,22 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Q8" dT="2025-07-01T18:35:33.91" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{A32A2A61-6008-4EFA-94A8-7D4E0B1FF658}">
+  <threadedComment ref="S8" dT="2025-07-01T18:35:33.91" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{A32A2A61-6008-4EFA-94A8-7D4E0B1FF658}">
     <text>Kontynuacja trendu</text>
   </threadedComment>
-  <threadedComment ref="Q9" dT="2025-07-01T18:36:21.53" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{5501E185-CFCC-48A6-B673-A090B4BAC491}">
+  <threadedComment ref="S9" dT="2025-07-01T18:36:21.53" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{5501E185-CFCC-48A6-B673-A090B4BAC491}">
     <text>Kontynuacja trendu</text>
   </threadedComment>
-  <threadedComment ref="O12" dT="2025-07-01T18:38:14.60" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{A1CE0A75-6E29-4343-8C75-FE4CB122E39C}">
+  <threadedComment ref="Q12" dT="2025-07-01T18:38:14.60" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{A1CE0A75-6E29-4343-8C75-FE4CB122E39C}">
     <text>Na potrzeby wymyślenia trajektorii - średnie</text>
   </threadedComment>
-  <threadedComment ref="O14" dT="2025-07-01T18:38:14.60" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{9D70653A-7BE9-4080-AC12-E27A52126FB4}">
+  <threadedComment ref="Q14" dT="2025-07-01T18:38:14.60" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{9D70653A-7BE9-4080-AC12-E27A52126FB4}">
     <text>Na potrzeby wymyślenia trajektorii - średnie</text>
   </threadedComment>
-  <threadedComment ref="N16" dT="2025-06-02T15:53:15.69" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{19C9F95A-48AF-4B96-8A5E-221F5696861C}">
+  <threadedComment ref="P16" dT="2025-06-02T15:53:15.69" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{19C9F95A-48AF-4B96-8A5E-221F5696861C}">
     <text>Industrial+residential</text>
   </threadedComment>
-  <threadedComment ref="O16" dT="2025-06-25T18:34:57.21" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{949D57D8-FB43-4079-B85C-4919979C506A}">
+  <threadedComment ref="Q16" dT="2025-06-25T18:34:57.21" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{949D57D8-FB43-4079-B85C-4919979C506A}">
     <text>Wzrost o 15% co 5 lat</text>
   </threadedComment>
   <threadedComment ref="C24" dT="2025-07-21T16:42:47.79" personId="{0A330A8A-83DE-4C14-BDFA-9ADF16A79C58}" id="{0A154F01-0F2D-4711-97ED-6F01E3C8934A}">
@@ -7519,7 +7524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -8349,74 +8354,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F913FC6-85F0-4DE0-A06C-FA6D59278C8D}">
-  <dimension ref="B2:R24"/>
+  <dimension ref="B2:T24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18">
+    <row r="2" spans="2:20" ht="18">
       <c r="B2" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:20">
       <c r="B4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>139</v>
       </c>
-      <c r="O4">
-        <f>O8/N8</f>
+      <c r="Q4">
+        <f>Q8/P8</f>
         <v>1.4414542020774317</v>
       </c>
-      <c r="P4">
-        <f>P8/O8</f>
+      <c r="R4">
+        <f>R8/Q8</f>
         <v>1.333442515558467</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:20">
       <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="30">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D5" s="30">
+        <v>2025</v>
+      </c>
+      <c r="E5" s="30">
         <v>2030</v>
       </c>
-      <c r="E5" s="30">
+      <c r="F5" s="30">
         <v>2035</v>
       </c>
-      <c r="F5" s="30">
+      <c r="G5" s="30">
         <v>2040</v>
       </c>
-      <c r="G5" s="30">
+      <c r="H5" s="30">
         <v>2045</v>
       </c>
-      <c r="H5" s="30">
+      <c r="I5" s="30">
         <v>2050</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>140</v>
       </c>
-      <c r="O5">
-        <f>O9/N9</f>
+      <c r="Q5">
+        <f>Q9/P9</f>
         <v>5.427710843373494</v>
       </c>
-      <c r="P5">
-        <f>P9/O9</f>
+      <c r="R5">
+        <f>R9/Q9</f>
         <v>3.79134295227525</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:20">
       <c r="B6" s="24" t="s">
         <v>94</v>
       </c>
@@ -8428,30 +8436,31 @@
       <c r="F6" s="99"/>
       <c r="G6" s="99"/>
       <c r="H6" s="99"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="72">
+      <c r="I6" s="99"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="72">
         <v>2022</v>
       </c>
-      <c r="M6" s="72">
+      <c r="O6" s="72">
         <v>2024</v>
       </c>
-      <c r="N6" s="72">
+      <c r="P6" s="72">
         <v>2030</v>
       </c>
-      <c r="O6" s="72">
+      <c r="Q6" s="72">
         <v>2035</v>
       </c>
-      <c r="P6" s="72">
+      <c r="R6" s="72">
         <v>2040</v>
       </c>
-      <c r="Q6" s="72">
+      <c r="S6" s="72">
         <v>2045</v>
       </c>
-      <c r="R6" s="72">
+      <c r="T6" s="72">
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="13.5" thickBot="1">
+    <row r="7" spans="2:20" ht="13.5" thickBot="1">
       <c r="B7" s="68" t="s">
         <v>96</v>
       </c>
@@ -8461,151 +8470,162 @@
       <c r="F7" s="100"/>
       <c r="G7" s="100"/>
       <c r="H7" s="100"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="101" t="s">
+      <c r="I7" s="100"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
       <c r="P7" s="101"/>
       <c r="Q7" s="101"/>
       <c r="R7" s="101"/>
-    </row>
-    <row r="8" spans="2:18">
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+    </row>
+    <row r="8" spans="2:20">
       <c r="B8" s="57" t="str">
         <f>SEC_Comm!C10</f>
         <v>IND_FERT_H2G</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="64">
-        <f>N8</f>
+      <c r="C8" s="104">
+        <v>0</v>
+      </c>
+      <c r="D8" s="104">
+        <v>0</v>
+      </c>
+      <c r="E8" s="64">
+        <f>P8</f>
         <v>0.21179999999999999</v>
       </c>
-      <c r="E8" s="64">
-        <f>O8</f>
+      <c r="F8" s="64">
+        <f>Q8</f>
         <v>0.30530000000000002</v>
       </c>
-      <c r="F8" s="64">
-        <f>P8</f>
+      <c r="G8" s="64">
+        <f>R8</f>
         <v>0.40710000000000002</v>
       </c>
-      <c r="G8" s="64">
-        <f t="shared" ref="G8:H9" si="0">Q8</f>
+      <c r="H8" s="64">
+        <f t="shared" ref="H8:I9" si="0">S8</f>
         <v>0.5495850000000001</v>
       </c>
-      <c r="H8" s="64">
+      <c r="I8" s="64">
         <f t="shared" si="0"/>
         <v>0.74193975000000023</v>
       </c>
-      <c r="K8" s="73" t="s">
+      <c r="M8" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="74">
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="74">
         <v>0.21179999999999999</v>
       </c>
-      <c r="O8" s="74">
+      <c r="Q8" s="74">
         <v>0.30530000000000002</v>
       </c>
-      <c r="P8" s="74">
+      <c r="R8" s="74">
         <v>0.40710000000000002</v>
       </c>
-      <c r="Q8" s="73">
-        <f>P8*1.35</f>
+      <c r="S8" s="73">
+        <f>R8*1.35</f>
         <v>0.5495850000000001</v>
       </c>
-      <c r="R8" s="73">
-        <f>Q8*1.35</f>
+      <c r="T8" s="73">
+        <f>S8*1.35</f>
         <v>0.74193975000000023</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:20">
       <c r="B9" s="59" t="str">
         <f>SEC_Comm!C11</f>
         <v>IND_REF_H2G</v>
       </c>
-      <c r="D9" s="66">
-        <f t="shared" ref="D9:D17" si="1">N9</f>
+      <c r="C9" s="105">
+        <v>0</v>
+      </c>
+      <c r="D9" s="105">
+        <v>0</v>
+      </c>
+      <c r="E9" s="66">
+        <f t="shared" ref="E9:E17" si="1">P9</f>
         <v>1.66E-2</v>
       </c>
-      <c r="E9" s="66">
-        <f t="shared" ref="E9:F10" si="2">O9</f>
+      <c r="F9" s="66">
+        <f t="shared" ref="F9:G10" si="2">Q9</f>
         <v>9.01E-2</v>
       </c>
-      <c r="F9" s="66">
+      <c r="G9" s="66">
         <f t="shared" si="2"/>
         <v>0.34160000000000001</v>
       </c>
-      <c r="G9" s="66">
+      <c r="H9" s="66">
         <f t="shared" si="0"/>
         <v>1.0247999999999999</v>
       </c>
-      <c r="H9" s="66">
+      <c r="I9" s="66">
         <f t="shared" si="0"/>
         <v>3.0743999999999998</v>
       </c>
-      <c r="K9" s="73" t="s">
+      <c r="M9" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="74">
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="74">
         <v>1.66E-2</v>
       </c>
-      <c r="O9" s="74">
+      <c r="Q9" s="74">
         <v>9.01E-2</v>
       </c>
-      <c r="P9" s="74">
+      <c r="R9" s="74">
         <v>0.34160000000000001</v>
       </c>
-      <c r="Q9" s="73">
-        <f>P9*3</f>
+      <c r="S9" s="73">
+        <f>R9*3</f>
         <v>1.0247999999999999</v>
       </c>
-      <c r="R9" s="73">
-        <f>Q9*3</f>
+      <c r="T9" s="73">
+        <f>S9*3</f>
         <v>3.0743999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:20">
       <c r="B10" s="60" t="str">
         <f>SEC_Comm!C12</f>
         <v>IND_STEEL_H2G</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="65">
+      <c r="C10" s="106">
+        <v>0</v>
+      </c>
+      <c r="D10" s="106">
+        <v>0</v>
+      </c>
+      <c r="E10" s="65">
         <f t="shared" si="1"/>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E10" s="65">
-        <f t="shared" si="2"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="65">
         <f t="shared" si="2"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G10" s="39">
-        <f>Q10</f>
+      <c r="G10" s="65">
+        <f t="shared" si="2"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H10" s="40">
-        <f>R10</f>
+      <c r="H10" s="39">
+        <f>S10</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K10" s="73" t="s">
+      <c r="I10" s="40">
+        <f>T10</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M10" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="73">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="O10" s="73">
-        <v>4.2000000000000003E-2</v>
-      </c>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
       <c r="P10" s="73">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -8615,316 +8635,359 @@
       <c r="R10" s="73">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:18">
+      <c r="S10" s="73">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="T10" s="73">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
       <c r="B11" s="59" t="str">
         <f>SEC_Comm!C13</f>
         <v>IND_TRA_AVI_SAF</v>
       </c>
-      <c r="D11" s="66">
+      <c r="C11" s="107">
+        <v>0</v>
+      </c>
+      <c r="D11" s="107">
+        <v>0</v>
+      </c>
+      <c r="E11" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="K11" s="73" t="s">
+      <c r="I11" s="37"/>
+      <c r="M11" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
       <c r="N11" s="73"/>
       <c r="O11" s="73"/>
       <c r="P11" s="73"/>
       <c r="Q11" s="73"/>
       <c r="R11" s="73"/>
-    </row>
-    <row r="12" spans="2:18">
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+    </row>
+    <row r="12" spans="2:20">
       <c r="B12" s="60" t="str">
         <f>SEC_Comm!C14</f>
         <v>TRA_CAR_H2G</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="65">
+      <c r="C12" s="106">
+        <v>0</v>
+      </c>
+      <c r="D12" s="106">
+        <v>0</v>
+      </c>
+      <c r="E12" s="65">
         <f t="shared" si="1"/>
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="E12" s="65">
-        <f t="shared" ref="E12" si="3">O12</f>
+      <c r="F12" s="65">
+        <f t="shared" ref="F12" si="3">Q12</f>
         <v>1.7689271708159999</v>
       </c>
-      <c r="F12" s="65">
-        <f t="shared" ref="F12" si="4">P12</f>
+      <c r="G12" s="65">
+        <f t="shared" ref="G12" si="4">R12</f>
         <v>3.5270543416319997</v>
       </c>
-      <c r="G12" s="65">
-        <f t="shared" ref="G12" si="5">Q12</f>
+      <c r="H12" s="65">
+        <f t="shared" ref="H12" si="5">S12</f>
         <v>5.2851815124480002</v>
       </c>
-      <c r="H12" s="40">
-        <f>R12</f>
+      <c r="I12" s="40">
+        <f>T12</f>
         <v>7.0433086832639997</v>
       </c>
-      <c r="K12" s="73" t="s">
+      <c r="M12" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73">
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73">
         <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="O12" s="92">
-        <f>AVERAGE(N12,P12)</f>
-        <v>1.7689271708159999</v>
-      </c>
-      <c r="P12" s="92">
-        <f>AVERAGE(N12,R12)</f>
-        <v>3.5270543416319997</v>
       </c>
       <c r="Q12" s="92">
         <f>AVERAGE(P12,R12)</f>
+        <v>1.7689271708159999</v>
+      </c>
+      <c r="R12" s="92">
+        <f>AVERAGE(P12,T12)</f>
+        <v>3.5270543416319997</v>
+      </c>
+      <c r="S12" s="92">
+        <f>AVERAGE(R12,T12)</f>
         <v>5.2851815124480002</v>
       </c>
-      <c r="R12" s="73">
+      <c r="T12" s="73">
         <v>7.0433086832639997</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:20">
       <c r="B13" s="59" t="str">
         <f>SEC_Comm!C15</f>
         <v>TRA_RAIL_H2G</v>
       </c>
-      <c r="D13" s="66">
+      <c r="C13" s="107">
+        <v>0</v>
+      </c>
+      <c r="D13" s="107">
+        <v>0</v>
+      </c>
+      <c r="E13" s="66">
         <f t="shared" si="1"/>
         <v>1.25E-3</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="K13" s="73" t="s">
+      <c r="I13" s="37"/>
+      <c r="M13" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73">
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73">
         <v>1.25E-3</v>
       </c>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
       <c r="R13" s="73"/>
-    </row>
-    <row r="14" spans="2:18">
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+    </row>
+    <row r="14" spans="2:20">
       <c r="B14" s="60" t="str">
         <f>SEC_Comm!C17</f>
         <v>TRA_BUS_H2G</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="65">
+      <c r="C14" s="106">
+        <v>0</v>
+      </c>
+      <c r="D14" s="106">
+        <v>0</v>
+      </c>
+      <c r="E14" s="65">
         <f t="shared" si="1"/>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="E14" s="65">
-        <f t="shared" ref="E14" si="6">O14</f>
+      <c r="F14" s="65">
+        <f t="shared" ref="F14" si="6">Q14</f>
         <v>0.8030004491876287</v>
       </c>
-      <c r="F14" s="65">
-        <f t="shared" ref="F14" si="7">P14</f>
+      <c r="G14" s="65">
+        <f t="shared" ref="G14" si="7">R14</f>
         <v>1.5988008983752573</v>
       </c>
-      <c r="G14" s="65">
-        <f t="shared" ref="G14" si="8">Q14</f>
+      <c r="H14" s="65">
+        <f t="shared" ref="H14" si="8">S14</f>
         <v>2.3946013475628858</v>
       </c>
-      <c r="H14" s="40">
-        <f>R14</f>
+      <c r="I14" s="40">
+        <f>T14</f>
         <v>3.1904017967505145</v>
       </c>
-      <c r="K14" s="76" t="s">
+      <c r="M14" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73">
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73">
         <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="O14" s="92">
-        <f>AVERAGE(N14,P14)</f>
-        <v>0.8030004491876287</v>
-      </c>
-      <c r="P14" s="92">
-        <f>AVERAGE(N14,R14)</f>
-        <v>1.5988008983752573</v>
       </c>
       <c r="Q14" s="92">
         <f>AVERAGE(P14,R14)</f>
+        <v>0.8030004491876287</v>
+      </c>
+      <c r="R14" s="92">
+        <f>AVERAGE(P14,T14)</f>
+        <v>1.5988008983752573</v>
+      </c>
+      <c r="S14" s="92">
+        <f>AVERAGE(R14,T14)</f>
         <v>2.3946013475628858</v>
       </c>
-      <c r="R14" s="73">
+      <c r="T14" s="73">
         <v>3.1904017967505145</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:20">
       <c r="B15" s="59" t="str">
         <f>SEC_Comm!C16</f>
         <v>TRA_TRUCK_H2G</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="66">
+      <c r="C15" s="105">
+        <v>0</v>
+      </c>
+      <c r="D15" s="105">
+        <v>0</v>
+      </c>
+      <c r="E15" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="K15" s="73" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="M15" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
       <c r="N15" s="73"/>
       <c r="O15" s="73"/>
       <c r="P15" s="73"/>
       <c r="Q15" s="73"/>
       <c r="R15" s="73"/>
-    </row>
-    <row r="16" spans="2:18">
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+    </row>
+    <row r="16" spans="2:20">
       <c r="B16" s="60" t="str">
         <f>SEC_Comm!C18</f>
         <v>HT_H2G</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="65">
+      <c r="C16" s="106">
+        <v>0</v>
+      </c>
+      <c r="D16" s="106">
+        <v>0</v>
+      </c>
+      <c r="E16" s="65">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="E16" s="39">
-        <f>O16</f>
+      <c r="F16" s="39">
+        <f>Q16</f>
         <v>2.3E-2</v>
       </c>
-      <c r="F16" s="39">
-        <f t="shared" ref="F16:H16" si="9">P16</f>
+      <c r="G16" s="39">
+        <f t="shared" ref="G16:I16" si="9">R16</f>
         <v>2.6449999999999998E-2</v>
       </c>
-      <c r="G16" s="39">
+      <c r="H16" s="39">
         <f t="shared" si="9"/>
         <v>3.0417499999999997E-2</v>
       </c>
-      <c r="H16" s="70">
+      <c r="I16" s="70">
         <f t="shared" si="9"/>
         <v>3.4980124999999994E-2</v>
       </c>
-      <c r="K16" s="73" t="s">
+      <c r="M16" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73">
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73">
         <f>20000/10^6</f>
         <v>0.02</v>
       </c>
-      <c r="O16" s="73">
-        <f>N16*1.15</f>
+      <c r="Q16" s="73">
+        <f>P16*1.15</f>
         <v>2.3E-2</v>
       </c>
-      <c r="P16" s="73">
-        <f t="shared" ref="P16:R16" si="10">O16*1.15</f>
+      <c r="R16" s="73">
+        <f t="shared" ref="R16:T16" si="10">Q16*1.15</f>
         <v>2.6449999999999998E-2</v>
       </c>
-      <c r="Q16" s="73">
+      <c r="S16" s="73">
         <f t="shared" si="10"/>
         <v>3.0417499999999997E-2</v>
       </c>
-      <c r="R16" s="73">
+      <c r="T16" s="73">
         <f t="shared" si="10"/>
         <v>3.4980124999999994E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="13.5" thickBot="1">
+    <row r="17" spans="2:20" ht="13.5" thickBot="1">
       <c r="B17" s="67" t="str">
         <f>SEC_Comm!C19</f>
         <v>PP_H2G</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="69">
+      <c r="C17" s="108">
+        <v>0</v>
+      </c>
+      <c r="D17" s="108">
+        <v>0</v>
+      </c>
+      <c r="E17" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="K17" s="73" t="s">
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="M17" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
       <c r="N17" s="73"/>
       <c r="O17" s="73"/>
       <c r="P17" s="73"/>
       <c r="Q17" s="73"/>
       <c r="R17" s="73"/>
-    </row>
-    <row r="18" spans="2:18">
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+    </row>
+    <row r="18" spans="2:20">
       <c r="B18" s="13"/>
-      <c r="K18" s="90" t="s">
+      <c r="M18" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="N18" s="91">
-        <f>SUM(N8:N17)</f>
+      <c r="P18" s="91">
+        <f>SUM(P8:P17)</f>
         <v>0.30964999999999993</v>
       </c>
-      <c r="O18" s="91">
-        <f t="shared" ref="O18:R18" si="11">SUM(O8:O17)</f>
+      <c r="Q18" s="91">
+        <f t="shared" ref="Q18:T18" si="11">SUM(Q8:Q17)</f>
         <v>3.0323276200036289</v>
       </c>
-      <c r="P18" s="91">
+      <c r="R18" s="91">
         <f t="shared" si="11"/>
         <v>5.9430052400072571</v>
       </c>
-      <c r="Q18" s="91">
+      <c r="S18" s="91">
         <f t="shared" si="11"/>
         <v>9.3265853600108866</v>
       </c>
-      <c r="R18" s="91">
+      <c r="T18" s="91">
         <f t="shared" si="11"/>
         <v>14.127030355014515</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:20">
       <c r="B19" s="13"/>
-      <c r="K19" s="90" t="s">
+      <c r="M19" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="N19">
-        <f>N18/365</f>
+      <c r="P19">
+        <f>P18/365</f>
         <v>8.4835616438356143E-4</v>
       </c>
-      <c r="O19">
-        <f t="shared" ref="O19:R19" si="12">O18/365</f>
+      <c r="Q19">
+        <f t="shared" ref="Q19:T19" si="12">Q18/365</f>
         <v>8.3077469041195305E-3</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <f t="shared" si="12"/>
         <v>1.6282206137006185E-2</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <f t="shared" si="12"/>
         <v>2.5552288657564072E-2</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <f t="shared" si="12"/>
         <v>3.8704192753464428E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:20">
       <c r="B20" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:20">
       <c r="B21" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="30">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D21" s="30">
         <v>2030</v>
@@ -8942,7 +9005,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="25.5">
+    <row r="22" spans="2:20" ht="25.5">
       <c r="B22" s="24" t="s">
         <v>94</v>
       </c>
@@ -8955,7 +9018,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="2:18" ht="13.5" thickBot="1">
+    <row r="23" spans="2:20" ht="13.5" thickBot="1">
       <c r="B23" s="68" t="s">
         <v>96</v>
       </c>
@@ -8966,7 +9029,7 @@
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
     </row>
-    <row r="24" spans="2:18" ht="12.75" customHeight="1">
+    <row r="24" spans="2:20" ht="12.75" customHeight="1">
       <c r="B24" s="57" t="str">
         <f>SEC_Comm!C22</f>
         <v>DMD_ELC_TOT</v>
@@ -8992,9 +9055,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="O7:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9161,6 +9224,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="d01415ea1199deeb41b51c70588c36fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa59cd927a012587991ffb3f8178b460" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -9403,27 +9486,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF039349-5957-4A15-B98A-CDE463E3B859}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9440,30 +9529,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_ModelPL_DEMAND_v1.xlsx
+++ b/VT_ModelPL_DEMAND_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\H2-model-v02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\HYDROGEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98621319-09A0-4D15-9704-2518D627597F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C3560-5FE3-4028-A623-B165DC707164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="499" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="499" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="195">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1215,6 +1215,60 @@
   </si>
   <si>
     <t>SHARE~2030~FX</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>H2G</t>
+  </si>
+  <si>
+    <t>tona na ciężarówkę</t>
+  </si>
+  <si>
+    <t>Mt/dzień</t>
+  </si>
+  <si>
+    <t>do rozwiezienia</t>
+  </si>
+  <si>
+    <t>razy na dzień ciężarówka przejeżdża tam i z potwrotem</t>
+  </si>
+  <si>
+    <t>tyle ciężarówek trzeba</t>
+  </si>
+  <si>
+    <t>ciężarówek</t>
+  </si>
+  <si>
+    <t>ton wodoru na dobę na ciężarówki wszystkie</t>
+  </si>
+  <si>
+    <t>tyle ton rocznie</t>
+  </si>
+  <si>
+    <t>km dystans rozwózki tam i z powrotem</t>
+  </si>
+  <si>
+    <t>kursy dziennie</t>
+  </si>
+  <si>
+    <t>km promień od .. Do..</t>
+  </si>
+  <si>
+    <t>km dziennie cieżarówka</t>
+  </si>
+  <si>
+    <t>km rocznie</t>
+  </si>
+  <si>
+    <t>t H2 na ciężarókę rocznie</t>
+  </si>
+  <si>
+    <t>tony na dzień</t>
+  </si>
+  <si>
+    <t>ton na ciężarówkę na rok</t>
   </si>
 </sst>
 </file>
@@ -4288,32 +4342,32 @@
     <xf numFmtId="184" fontId="116" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="184" fontId="116" fillId="43" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="116" fillId="43" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="109" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="39" borderId="0" xfId="791" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="44" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="43" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="109" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="0" xfId="791" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1263">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7416,11 +7470,11 @@
       <c r="I20" s="1"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="17" t="s">
@@ -7524,8 +7578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:U53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8270,18 +8324,18 @@
       <c r="H47" s="39">
         <v>1</v>
       </c>
-      <c r="L47" s="98" t="s">
+      <c r="L47" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="M47" s="98"/>
-      <c r="N47" s="98"/>
-      <c r="O47" s="98"/>
-      <c r="P47" s="98"/>
-      <c r="Q47" s="98"/>
-      <c r="R47" s="98"/>
-      <c r="S47" s="98"/>
-      <c r="T47" s="98"/>
-      <c r="U47" s="98"/>
+      <c r="M47" s="103"/>
+      <c r="N47" s="103"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="103"/>
+      <c r="S47" s="103"/>
+      <c r="T47" s="103"/>
+      <c r="U47" s="103"/>
     </row>
     <row r="48" spans="2:21">
       <c r="B48" s="50"/>
@@ -8354,15 +8408,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F913FC6-85F0-4DE0-A06C-FA6D59278C8D}">
-  <dimension ref="B2:T24"/>
+  <dimension ref="B2:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="14" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8428,15 +8483,15 @@
       <c r="B6" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
       <c r="M6" s="71"/>
       <c r="N6" s="72">
         <v>2022</v>
@@ -8464,33 +8519,33 @@
       <c r="B7" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
       <c r="M7" s="71"/>
       <c r="N7" s="71"/>
-      <c r="O7" s="101" t="s">
+      <c r="O7" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="57" t="str">
         <f>SEC_Comm!C10</f>
         <v>IND_FERT_H2G</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="97">
         <v>0</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="97">
         <v>0</v>
       </c>
       <c r="E8" s="64">
@@ -8541,10 +8596,10 @@
         <f>SEC_Comm!C11</f>
         <v>IND_REF_H2G</v>
       </c>
-      <c r="C9" s="105">
+      <c r="C9" s="98">
         <v>0</v>
       </c>
-      <c r="D9" s="105">
+      <c r="D9" s="98">
         <v>0</v>
       </c>
       <c r="E9" s="66">
@@ -8595,10 +8650,10 @@
         <f>SEC_Comm!C12</f>
         <v>IND_STEEL_H2G</v>
       </c>
-      <c r="C10" s="106">
+      <c r="C10" s="99">
         <v>0</v>
       </c>
-      <c r="D10" s="106">
+      <c r="D10" s="99">
         <v>0</v>
       </c>
       <c r="E10" s="65">
@@ -8647,10 +8702,10 @@
         <f>SEC_Comm!C13</f>
         <v>IND_TRA_AVI_SAF</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C11" s="100">
         <v>0</v>
       </c>
-      <c r="D11" s="107">
+      <c r="D11" s="100">
         <v>0</v>
       </c>
       <c r="E11" s="66">
@@ -8674,10 +8729,10 @@
         <f>SEC_Comm!C14</f>
         <v>TRA_CAR_H2G</v>
       </c>
-      <c r="C12" s="106">
+      <c r="C12" s="99">
         <v>0</v>
       </c>
-      <c r="D12" s="106">
+      <c r="D12" s="99">
         <v>0</v>
       </c>
       <c r="E12" s="65">
@@ -8729,10 +8784,10 @@
         <f>SEC_Comm!C15</f>
         <v>TRA_RAIL_H2G</v>
       </c>
-      <c r="C13" s="107">
+      <c r="C13" s="100">
         <v>0</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="100">
         <v>0</v>
       </c>
       <c r="E13" s="66">
@@ -8758,10 +8813,10 @@
         <f>SEC_Comm!C17</f>
         <v>TRA_BUS_H2G</v>
       </c>
-      <c r="C14" s="106">
+      <c r="C14" s="99">
         <v>0</v>
       </c>
-      <c r="D14" s="106">
+      <c r="D14" s="99">
         <v>0</v>
       </c>
       <c r="E14" s="65">
@@ -8813,10 +8868,10 @@
         <f>SEC_Comm!C16</f>
         <v>TRA_TRUCK_H2G</v>
       </c>
-      <c r="C15" s="105">
+      <c r="C15" s="98">
         <v>0</v>
       </c>
-      <c r="D15" s="105">
+      <c r="D15" s="98">
         <v>0</v>
       </c>
       <c r="E15" s="66">
@@ -8843,10 +8898,10 @@
         <f>SEC_Comm!C18</f>
         <v>HT_H2G</v>
       </c>
-      <c r="C16" s="106">
+      <c r="C16" s="99">
         <v>0</v>
       </c>
-      <c r="D16" s="106">
+      <c r="D16" s="99">
         <v>0</v>
       </c>
       <c r="E16" s="65">
@@ -8900,10 +8955,10 @@
         <f>SEC_Comm!C19</f>
         <v>PP_H2G</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="101">
         <v>0</v>
       </c>
-      <c r="D17" s="108">
+      <c r="D17" s="101">
         <v>0</v>
       </c>
       <c r="E17" s="69">
@@ -9051,6 +9106,160 @@
       </c>
       <c r="H24" s="58">
         <v>608.24159999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="M28">
+        <v>100</v>
+      </c>
+      <c r="N28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="M29">
+        <v>200</v>
+      </c>
+      <c r="N29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>179</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="M31">
+        <f>M29*M30</f>
+        <v>400</v>
+      </c>
+      <c r="N31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="M32">
+        <f>M31*300</f>
+        <v>120000</v>
+      </c>
+      <c r="N32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14">
+      <c r="F33" s="91">
+        <v>0.3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14">
+      <c r="F35">
+        <f>F33/365</f>
+        <v>8.2191780821917802E-4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14">
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M37">
+        <f>M35*365</f>
+        <v>730</v>
+      </c>
+      <c r="N37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14">
+      <c r="F39">
+        <f>F35/F37</f>
+        <v>4.1095890410958901E-4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="6:14">
+      <c r="F40">
+        <f>F39*10^6</f>
+        <v>410.95890410958901</v>
+      </c>
+      <c r="G40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="6:14">
+      <c r="F42">
+        <f>F40*F37</f>
+        <v>821.91780821917803</v>
+      </c>
+      <c r="G42" t="s">
+        <v>185</v>
+      </c>
+      <c r="N42">
+        <v>7.2999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="6:14">
+      <c r="F44">
+        <f>F42*365</f>
+        <v>300000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="6:14">
+      <c r="N45">
+        <v>7.2999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="6:14">
+      <c r="F46">
+        <f>F44/F40</f>
+        <v>730</v>
+      </c>
+      <c r="G46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="6:14">
+      <c r="F48">
+        <f>F46/10^6</f>
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -9132,29 +9341,29 @@
       <c r="B7" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" spans="2:9" ht="36.75" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1">
       <c r="B9" s="13" t="e">
@@ -9193,8 +9402,8 @@
     <row r="11" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="12" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="13" spans="2:9">
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
     </row>
     <row r="14" spans="2:9">
       <c r="C14" s="26"/>
